--- a/evaluation/results/isolation_forest/augmented/shift_2/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_2/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9199288256227758</v>
+        <v>0.3701067615658363</v>
       </c>
       <c r="C2">
-        <v>0.3265306122448979</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="D2">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4155844155844156</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="F2">
-        <v>0.4968944099378882</v>
+        <v>0.2834008097165992</v>
       </c>
       <c r="G2">
-        <v>0.5554072096128171</v>
+        <v>0.6728280961182994</v>
       </c>
       <c r="H2">
-        <v>0.7548154093097913</v>
+        <v>0.8257758159443552</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="K2">
-        <v>501</v>
+        <v>180</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9766081871345029</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9382022471910112</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="D2">
-        <v>0.9570200573065902</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3265306122448979</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4155844155844156</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9199288256227758</v>
+        <v>0.3701067615658363</v>
       </c>
       <c r="C4">
-        <v>0.9199288256227758</v>
+        <v>0.3701067615658363</v>
       </c>
       <c r="D4">
-        <v>0.9199288256227758</v>
+        <v>0.3701067615658363</v>
       </c>
       <c r="E4">
-        <v>0.9199288256227758</v>
+        <v>0.3701067615658363</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6515693996897004</v>
+        <v>0.5366492146596858</v>
       </c>
       <c r="C5">
-        <v>0.7548154093097913</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D5">
-        <v>0.6863022364455029</v>
+        <v>0.3203935232629637</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.944219980556373</v>
+        <v>0.9538298149838833</v>
       </c>
       <c r="C6">
-        <v>0.9199288256227758</v>
+        <v>0.3701067615658363</v>
       </c>
       <c r="D6">
-        <v>0.930044616081998</v>
+        <v>0.485886277087</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>501</v>
+        <v>180</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
